--- a/ПКМ/resdata PKM Temp=-20, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-20, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>943.962656025712</v>
       </c>
       <c r="E3" t="n">
-        <v>443.8441482373031</v>
+        <v>443.8222820669532</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.66783017528119</v>
+        <v>13.66781254235108</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>538.3343628766287</v>
+        <v>538.3347798337953</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>961.5036565334328</v>
+        <v>961.5044729673589</v>
       </c>
       <c r="E5" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.8655426125765</v>
+        <v>463.8597275042005</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>876.2935914115576</v>
+        <v>876.2873205632389</v>
       </c>
       <c r="E6" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5057375573977</v>
+        <v>290.4996170855998</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.6202780881436</v>
+        <v>683.6139181496234</v>
       </c>
       <c r="E7" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F7" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.2501820111424</v>
+        <v>226.2447827324436</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.1341155122644</v>
+        <v>614.1286143642424</v>
       </c>
       <c r="E8" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F8" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.3299148331448</v>
+        <v>225.3245138939391</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.1457394401311</v>
+        <v>613.1402374845262</v>
       </c>
       <c r="E9" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.3340948350435</v>
+        <v>167.3297256830216</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.2073384169886</v>
+        <v>551.2029887606602</v>
       </c>
       <c r="E10" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F10" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.1437097840523</v>
+        <v>107.1422774561873</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>487.5606188033832</v>
+        <v>487.5593969278516</v>
       </c>
       <c r="E11" t="n">
-        <v>457.5119784125843</v>
+        <v>457.4900946093043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.778160435040821</v>
+        <v>0.7781603355280808</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202227068176942</v>
+        <v>0.1202225450862303</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0319478609668552</v>
+        <v>0.03194794691222815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310349265534786</v>
+        <v>0.06310366490751573</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565504519281726</v>
+        <v>0.006565507565945107</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.95585982417755</v>
+        <v>12.95584310976365</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.711970351103645</v>
+        <v>0.7119694325874446</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762704518432168</v>
+        <v>4.762703574995677</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944165</v>
+        <v>0.05094889585944153</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8184029214991854</v>
+        <v>0.8185883005455497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8697904146561645</v>
+        <v>0.8700012565396609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9409196833040601</v>
+        <v>0.940904733633833</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6106257151740391</v>
+        <v>0.6104543885103481</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.81624684600578</v>
+        <v>48.80976774823346</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.65795192192464</v>
+        <v>32.65507021283846</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.84931669834306</v>
+        <v>0.8493165918135559</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.2511043554123</v>
+        <v>10.2498731231952</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8356746928210521</v>
+        <v>0.8356762268902248</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.414971152662889</v>
+        <v>3.414306688182234</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8115627055970159</v>
+        <v>0.8115594567459971</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.492219416005963</v>
+        <v>2.490517724017565</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4653488071491447</v>
+        <v>0.4652074335222948</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.149150114056919</v>
+        <v>0.1491048245079007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1659800056477662</v>
+        <v>0.1659301571632426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8986028978299792</v>
+        <v>0.8985999112940688</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40395.30255650081</v>
+        <v>40396.0254472106</v>
       </c>
       <c r="C2" t="n">
-        <v>40803.33591565739</v>
+        <v>40804.06610829353</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89493.39673019934</v>
+        <v>89493.94665698364</v>
       </c>
       <c r="C3" t="n">
-        <v>90397.37043454479</v>
+        <v>90397.92591614509</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37638.06793900307</v>
+        <v>37637.679471875</v>
       </c>
       <c r="C4" t="n">
-        <v>38018.25044343744</v>
+        <v>38017.85805239899</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507.6619865932224</v>
+        <v>507.6608597294598</v>
       </c>
       <c r="C5" t="n">
-        <v>512.7898854476994</v>
+        <v>512.7887472014746</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32272.69684330709</v>
+        <v>32271.43759160782</v>
       </c>
       <c r="C6" t="n">
-        <v>32598.68368010818</v>
+        <v>32597.41170869477</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36663.84292287106</v>
+        <v>36663.16059660226</v>
       </c>
       <c r="C7" t="n">
-        <v>37034.18477057683</v>
+        <v>37033.4955521235</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.08662029404805</v>
+        <v>30.08314978301664</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.0947188734942</v>
+        <v>95.09801961685002</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.352430806105838</v>
+        <v>8.352600573781453</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.8268051335251</v>
+        <v>513.8219524895692</v>
       </c>
       <c r="C3" t="n">
-        <v>6.291033305571136</v>
+        <v>6.290321290428389</v>
       </c>
       <c r="D3" t="n">
-        <v>3452.718032019452</v>
+        <v>3452.713722147842</v>
       </c>
       <c r="E3" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.5395815165896</v>
+        <v>282.5337773009538</v>
       </c>
       <c r="C4" t="n">
-        <v>6.666009554622179</v>
+        <v>6.665431174626911</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.858476376559</v>
+        <v>2776.865602745544</v>
       </c>
       <c r="E4" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2665634495197</v>
+        <v>282.261900919463</v>
       </c>
       <c r="C5" t="n">
-        <v>6.666009554622179</v>
+        <v>6.665431174626911</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.769944459753</v>
+        <v>1248.745453291522</v>
       </c>
       <c r="E5" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.310709336479</v>
+        <v>164.3117734067273</v>
       </c>
       <c r="C6" t="n">
-        <v>6.666009554622179</v>
+        <v>6.665431174626911</v>
       </c>
       <c r="D6" t="n">
-        <v>697.6514880651118</v>
+        <v>697.655758405244</v>
       </c>
       <c r="E6" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.0712903223527</v>
+        <v>157.0673910525268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5735298408078525</v>
+        <v>0.5734720911565657</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7630100880702</v>
+        <v>662.7461050492324</v>
       </c>
       <c r="E7" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.8749015229729</v>
+        <v>169.869648251619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5677479992406653</v>
+        <v>0.5677099077365768</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.079264596718</v>
+        <v>2785.071431298008</v>
       </c>
       <c r="E8" t="n">
-        <v>14.48603610872456</v>
+        <v>14.48613976764938</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.0712902017384</v>
+        <v>157.0673909319205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5735298408078525</v>
+        <v>0.5734720911565657</v>
       </c>
       <c r="D9" t="n">
-        <v>2754.173961918174</v>
+        <v>2754.169552402345</v>
       </c>
       <c r="E9" t="n">
-        <v>14.48603610872456</v>
+        <v>14.48613976764938</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.0712903223527</v>
+        <v>157.0673910525268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5735298408078525</v>
+        <v>0.5734720911565657</v>
       </c>
       <c r="D10" t="n">
-        <v>694.0967823984802</v>
+        <v>694.0767409305395</v>
       </c>
       <c r="E10" t="n">
-        <v>71.59647330288931</v>
+        <v>71.5918258005473</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.0712903223527</v>
+        <v>157.0673910525268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5735298408078525</v>
+        <v>0.5734720911565657</v>
       </c>
       <c r="D11" t="n">
-        <v>694.0967823984802</v>
+        <v>694.0767409305395</v>
       </c>
       <c r="E11" t="n">
-        <v>71.59647330288931</v>
+        <v>71.59405419630654</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.48499430721938</v>
+        <v>69.48814837969161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5735298408078525</v>
+        <v>0.5734720911565657</v>
       </c>
       <c r="D12" t="n">
-        <v>291.452016338064</v>
+        <v>291.4652270731837</v>
       </c>
       <c r="E12" t="n">
-        <v>71.59647330288931</v>
+        <v>71.5918258005473</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.4841463081143</v>
+        <v>69.48814029100851</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>291.4484645209598</v>
+        <v>291.4651931939477</v>
       </c>
       <c r="E13" t="n">
-        <v>71.59064191537654</v>
+        <v>71.58612528330198</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.80600347683998</v>
+        <v>68.8107407557755</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>288.6082178423156</v>
+        <v>288.6280579404815</v>
       </c>
       <c r="E14" t="n">
-        <v>59.79283745513546</v>
+        <v>59.78840758518167</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.3747434159008</v>
+        <v>110.3780527489345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1451929559072948</v>
+        <v>0.1452090610264798</v>
       </c>
       <c r="D15" t="n">
-        <v>463.0011448413661</v>
+        <v>463.0151512275908</v>
       </c>
       <c r="E15" t="n">
-        <v>55.35985049594816</v>
+        <v>55.35927242273893</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.70020631288958</v>
+        <v>72.70106919448722</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1451929514279558</v>
+        <v>0.1452095335660483</v>
       </c>
       <c r="D16" t="n">
-        <v>304.474396002371</v>
+        <v>304.4780263333071</v>
       </c>
       <c r="E16" t="n">
-        <v>55.35815893908182</v>
+        <v>55.35885221505376</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>584.7547194297892</v>
+        <v>584.7557809986267</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.66208629219852</v>
+        <v>73.66222001899492</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.06906287931042</v>
+        <v>91.07128199928491</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>381.3061662756728</v>
+        <v>381.3154577310059</v>
       </c>
       <c r="E19" t="n">
-        <v>73.66208629219852</v>
+        <v>73.66222001899492</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.6106458434267</v>
+        <v>131.6198520967041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2007432584856804</v>
+        <v>0.2007383778226529</v>
       </c>
       <c r="D20" t="n">
-        <v>2730.611952522608</v>
+        <v>2730.630527131638</v>
       </c>
       <c r="E20" t="n">
-        <v>9.949492845738995</v>
+        <v>9.945972066626124</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.7123938860443</v>
+        <v>118.7116319527618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1907060955613964</v>
+        <v>0.1907014589315202</v>
       </c>
       <c r="D21" t="n">
-        <v>498.3434697474491</v>
+        <v>498.3402348067261</v>
       </c>
       <c r="E21" t="n">
-        <v>9.949492845738995</v>
+        <v>9.945972066626124</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.5193893280785</v>
+        <v>107.5224958406953</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>450.1836831166648</v>
+        <v>450.1966900849912</v>
       </c>
       <c r="E22" t="n">
-        <v>584.7547194297892</v>
+        <v>584.7557809986267</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>487.78550004187</v>
       </c>
       <c r="E23" t="n">
-        <v>584.7547194297892</v>
+        <v>584.7557809986267</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.44848258875022</v>
+        <v>66.448762133321</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>584.7547194297892</v>
+        <v>584.7557809986267</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.9121479220665</v>
+        <v>111.9154876570067</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1528346904287314</v>
+        <v>0.1528516431857682</v>
       </c>
       <c r="D25" t="n">
-        <v>2692.026159536141</v>
+        <v>2692.053122087347</v>
       </c>
       <c r="E25" t="n">
-        <v>45.41033812849849</v>
+        <v>45.41342889755409</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>510.9191414959899</v>
+        <v>510.9138844431824</v>
       </c>
       <c r="C26" t="n">
-        <v>5.668811984605912</v>
+        <v>5.668083371523731</v>
       </c>
       <c r="D26" t="n">
-        <v>3452.718032019452</v>
+        <v>3452.713722147842</v>
       </c>
       <c r="E26" t="n">
-        <v>45.30846802484604</v>
+        <v>45.30267606507815</v>
       </c>
       <c r="F26" t="n">
-        <v>6.945685223383373</v>
+        <v>6.945736565114923</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>206.3653619640754</v>
+        <v>206.3686586159988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4233886739916057</v>
+        <v>0.4233614391117422</v>
       </c>
       <c r="D27" t="n">
-        <v>2873.129640928384</v>
+        <v>2873.137856977441</v>
       </c>
       <c r="E27" t="n">
-        <v>45.30846802484604</v>
+        <v>45.30267606507815</v>
       </c>
       <c r="F27" t="n">
-        <v>7.172248846037904</v>
+        <v>7.172295037801994</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.1943215790959</v>
+        <v>167.1899910109442</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4831084405404102</v>
+        <v>0.4830820603469348</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.079264596718</v>
+        <v>2785.071431298008</v>
       </c>
       <c r="E28" t="n">
-        <v>14.48603610872456</v>
+        <v>14.48613976764938</v>
       </c>
       <c r="F28" t="n">
-        <v>6.92136336241846</v>
+        <v>6.921369870536708</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196.23347784089</v>
+        <v>196.2338186652173</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4233886739916057</v>
+        <v>0.4233614391117422</v>
       </c>
       <c r="D29" t="n">
-        <v>2851.798233478662</v>
+        <v>2851.800378831047</v>
       </c>
       <c r="E29" t="n">
-        <v>59.79450413357059</v>
+        <v>59.78881583272752</v>
       </c>
       <c r="F29" t="n">
-        <v>7.127286150725642</v>
+        <v>7.127319717718166</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>131.6106100671127</v>
+        <v>131.6190362440079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2007376665936253</v>
+        <v>0.2007452443444486</v>
       </c>
       <c r="D30" t="n">
-        <v>2730.611885905101</v>
+        <v>2730.629007964999</v>
       </c>
       <c r="E30" t="n">
-        <v>59.79450413357059</v>
+        <v>59.78881583272752</v>
       </c>
       <c r="F30" t="n">
-        <v>7.186338548085045</v>
+        <v>7.186363795055653</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9125836358269</v>
+        <v>111.9151868296774</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1528369020584343</v>
+        <v>0.1528501160993271</v>
       </c>
       <c r="D31" t="n">
-        <v>2692.028273891266</v>
+        <v>2692.051790583857</v>
       </c>
       <c r="E31" t="n">
-        <v>49.84499176612092</v>
+        <v>49.84297230754268</v>
       </c>
       <c r="F31" t="n">
-        <v>7.211711297112315</v>
+        <v>7.211733313162645</v>
       </c>
       <c r="G31" t="n">
-        <v>99.91337215429373</v>
+        <v>99.91425271641047</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.3352922410726</v>
+        <v>102.3470354476349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008985524979546276</v>
+        <v>0.008975860043766782</v>
       </c>
       <c r="D32" t="n">
-        <v>2692.028273891266</v>
+        <v>2692.051790583857</v>
       </c>
       <c r="E32" t="n">
-        <v>4.434678516053637</v>
+        <v>4.429555370127915</v>
       </c>
       <c r="F32" t="n">
-        <v>8.510371790571785</v>
+        <v>8.510930469321476</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.29442079253283</v>
+        <v>98.33393279373024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002255474629057683</v>
+        <v>0.002255168443868571</v>
       </c>
       <c r="D33" t="n">
-        <v>2685.176201074067</v>
+        <v>2685.251026613724</v>
       </c>
       <c r="E33" t="n">
-        <v>4.434678516053637</v>
+        <v>4.429555370127915</v>
       </c>
       <c r="F33" t="n">
-        <v>9.129508890457709</v>
+        <v>9.129772959746422</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.41213392707374</v>
+        <v>19.40995230001897</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002255474629057683</v>
+        <v>0.002255168443868571</v>
       </c>
       <c r="D34" t="n">
-        <v>81.45409861578347</v>
+        <v>81.44496868407782</v>
       </c>
       <c r="E34" t="n">
-        <v>4.434678516053637</v>
+        <v>4.429555370127915</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.43082235546512</v>
+        <v>21.42863884893131</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>90.55047607803962</v>
+        <v>90.54134617049991</v>
       </c>
       <c r="E35" t="n">
-        <v>4.434678516053637</v>
+        <v>4.429555370127915</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.827211602513</v>
+        <v>498.8283167676749</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3465.653939444367</v>
+        <v>3465.656377241221</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16419089288922</v>
+        <v>10.16418887948097</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>305.8432113199069</v>
       </c>
       <c r="E41" t="n">
-        <v>11.79780446024108</v>
+        <v>11.79771769812031</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.827211602513</v>
+        <v>513.8283167676749</v>
       </c>
       <c r="C42" t="n">
-        <v>6.290887860935342</v>
+        <v>6.290649373355402</v>
       </c>
       <c r="D42" t="n">
-        <v>3452.721565529634</v>
+        <v>3452.726528360327</v>
       </c>
       <c r="E42" t="n">
-        <v>11.79780446024108</v>
+        <v>11.79771769812031</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97393801086414</v>
+        <v>11.97393563896599</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762704518432168</v>
+        <v>4.762703574995677</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944165</v>
+        <v>0.05094889585944153</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.992496230307834</v>
+        <v>1.993539704065702</v>
       </c>
       <c r="C2" t="n">
-        <v>2.278494991295492</v>
+        <v>2.279779977386241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8744790916459084</v>
+        <v>0.8744439041662641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1915336265786109</v>
+        <v>0.1914003287823976</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>129.120987789235</v>
+        <v>129.1102126908393</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.60927318098372</v>
+        <v>31.60833630360203</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.223853292025064</v>
+        <v>6.22383042964181</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.46012620949089</v>
+        <v>35.45395799005653</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.26026208532163</v>
+        <v>26.25633767495206</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490220787845243</v>
+        <v>0.8490212608257687</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.246277560919579</v>
+        <v>7.244692776909279</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8371479562564709</v>
+        <v>0.8371472406620961</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.923199823136817</v>
+        <v>1.922803177630313</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7979452530898292</v>
+        <v>0.7979379715414521</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0303867401128669</v>
+        <v>0.03012436056487584</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03341758149021843</v>
+        <v>0.03318709291977737</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04033950970578189</v>
+        <v>0.0402929077436916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04519370986677528</v>
+        <v>0.04514160571814729</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925912438854237</v>
+        <v>0.8925891558946812</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38594.77921982854</v>
+        <v>38596.14308453936</v>
       </c>
       <c r="C2" t="n">
-        <v>38984.62547457428</v>
+        <v>38986.00311569632</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87268.84527824387</v>
+        <v>87264.71136791253</v>
       </c>
       <c r="C3" t="n">
-        <v>88150.34876590291</v>
+        <v>88146.17309890155</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31472.84419526504</v>
+        <v>31470.9498207029</v>
       </c>
       <c r="C4" t="n">
-        <v>31790.75171238893</v>
+        <v>31788.8382027302</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447.6719532555879</v>
+        <v>447.6509058888834</v>
       </c>
       <c r="C5" t="n">
-        <v>452.1938921773615</v>
+        <v>452.1726322109934</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28054.18478789189</v>
+        <v>28052.32100073625</v>
       </c>
       <c r="C6" t="n">
-        <v>28337.56039180998</v>
+        <v>28335.67777852146</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28827.9452437927</v>
+        <v>28825.14972037889</v>
       </c>
       <c r="C7" t="n">
-        <v>29119.13660989162</v>
+        <v>29116.31284886756</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.98783990614868</v>
+        <v>21.9802739231436</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.5566942126363</v>
+        <v>100.5637982348346</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.687991255234133</v>
+        <v>8.688691456716571</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34565.98520273613</v>
+        <v>34566.0031338433</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2560.270280395487</v>
+        <v>2560.037869524003</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22690.34866009597</v>
+        <v>22690.31938717357</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.760753321299</v>
+        <v>7875.7591932245</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.880678801238</v>
+        <v>5689.879551701913</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.0415118531</v>
+        <v>21121.03732801991</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37246.95322437112</v>
+        <v>37246.71394247032</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7794337063215927</v>
+        <v>0.7793686628687629</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.2384650448099</v>
+        <v>460.2372184005262</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>865.1907728706216</v>
+        <v>865.1893632150695</v>
       </c>
       <c r="E6" t="n">
         <v>517.99365816</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.0181305455457</v>
+        <v>303.0158527812797</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>690.6763381656652</v>
+        <v>690.6738561386825</v>
       </c>
       <c r="E7" t="n">
         <v>517.99365816</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1571656553176</v>
+        <v>235.1555595953504</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.2811337176328</v>
+        <v>617.2794092115815</v>
       </c>
       <c r="E8" t="n">
         <v>517.99365816</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.2351191244545</v>
+        <v>234.2335148091649</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2911797338925</v>
+        <v>616.2894574252547</v>
       </c>
       <c r="E9" t="n">
         <v>517.99365816</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.2777403637295</v>
+        <v>175.2784310449253</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.3585874780256</v>
+        <v>553.3593207427203</v>
       </c>
       <c r="E10" t="n">
         <v>517.99365816</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.5734884808702</v>
+        <v>107.575452344731</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.8631469698764</v>
+        <v>481.8652107884158</v>
       </c>
       <c r="E11" t="n">
         <v>517.99365816</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.9063936986731</v>
+        <v>502.905105380045</v>
       </c>
       <c r="C3" t="n">
-        <v>7.629282462589909</v>
+        <v>7.628841646411599</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.063691844497</v>
+        <v>3411.064113483073</v>
       </c>
       <c r="E3" t="n">
-        <v>61.93120111028701</v>
+        <v>61.93020771981365</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.9094553288653</v>
+        <v>294.9071090914509</v>
       </c>
       <c r="C4" t="n">
-        <v>7.988746072835409</v>
+        <v>7.988477533311912</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.850382505811</v>
+        <v>2758.854369067576</v>
       </c>
       <c r="E4" t="n">
-        <v>61.93120111028701</v>
+        <v>61.93020771981365</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.4010293134257</v>
+        <v>294.3993077156658</v>
       </c>
       <c r="C5" t="n">
-        <v>7.988746072835409</v>
+        <v>7.988477533311912</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.921883077572</v>
+        <v>1313.912518214841</v>
       </c>
       <c r="E5" t="n">
-        <v>61.93120111028701</v>
+        <v>61.93020771981365</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.110197687807</v>
+        <v>166.1121097542668</v>
       </c>
       <c r="C6" t="n">
-        <v>7.988746072835409</v>
+        <v>7.988477533311912</v>
       </c>
       <c r="D6" t="n">
-        <v>706.1992924300041</v>
+        <v>706.2074135470148</v>
       </c>
       <c r="E6" t="n">
-        <v>61.93120111028701</v>
+        <v>61.93020771981365</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.0246303120199</v>
+        <v>164.0257584150146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6841489903951472</v>
+        <v>0.6841682179224202</v>
       </c>
       <c r="D7" t="n">
-        <v>692.9845814793514</v>
+        <v>692.9894972718259</v>
       </c>
       <c r="E7" t="n">
-        <v>61.93120111028701</v>
+        <v>61.93020771981365</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.17793542842</v>
+        <v>176.1777557805037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.677039957957464</v>
+        <v>0.6770247361914722</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.946314432417</v>
+        <v>2791.944535528787</v>
       </c>
       <c r="E8" t="n">
-        <v>16.83018714023266</v>
+        <v>16.82947513885751</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.0246301772237</v>
+        <v>164.0257582802157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6841489903951472</v>
+        <v>0.6841682179224202</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.783271139083</v>
+        <v>2761.784463666042</v>
       </c>
       <c r="E9" t="n">
-        <v>16.83018714023266</v>
+        <v>16.82947513885751</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.0246303120199</v>
+        <v>164.0257584150146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6841489903951472</v>
+        <v>0.6841682179224202</v>
       </c>
       <c r="D10" t="n">
-        <v>725.3133067859037</v>
+        <v>725.301651220381</v>
       </c>
       <c r="E10" t="n">
-        <v>78.76138825051967</v>
+        <v>78.75968285867116</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.0246303120199</v>
+        <v>164.0257584150146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6841489903951472</v>
+        <v>0.6841682179224202</v>
       </c>
       <c r="D11" t="n">
-        <v>725.3133067859037</v>
+        <v>725.301651220381</v>
       </c>
       <c r="E11" t="n">
-        <v>78.76627718026108</v>
+        <v>78.76842879323912</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.933370013976</v>
+        <v>61.93471866899944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6841489903951472</v>
+        <v>0.6841682179224202</v>
       </c>
       <c r="D12" t="n">
-        <v>259.8377482748543</v>
+        <v>259.8433917384927</v>
       </c>
       <c r="E12" t="n">
-        <v>78.76138825051967</v>
+        <v>78.75968285867116</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.93352204549166</v>
+        <v>61.93545426651349</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>259.8383844525843</v>
+        <v>259.8464698558217</v>
       </c>
       <c r="E13" t="n">
-        <v>73.94158666318623</v>
+        <v>73.93540586191533</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.93352204549166</v>
+        <v>61.93545426651349</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>259.8383844525843</v>
+        <v>259.8464698558217</v>
       </c>
       <c r="E14" t="n">
-        <v>73.94158666318623</v>
+        <v>73.93540586191533</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.1338450650695</v>
+        <v>107.1353321983938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1301100781522539</v>
+        <v>0.1301166905170866</v>
       </c>
       <c r="D15" t="n">
-        <v>449.2920441374955</v>
+        <v>449.2983313240208</v>
       </c>
       <c r="E15" t="n">
-        <v>57.543604787005</v>
+        <v>57.54326758102867</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.27473795439818</v>
+        <v>72.27480857097873</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1301100409122762</v>
+        <v>0.1301167118267422</v>
       </c>
       <c r="D16" t="n">
-        <v>302.678793337893</v>
+        <v>302.679094741218</v>
       </c>
       <c r="E16" t="n">
-        <v>57.54459972511172</v>
+        <v>57.54339817393677</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.51437590095716</v>
+        <v>89.51491685254831</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>374.7966918973077</v>
+        <v>374.7989568616198</v>
       </c>
       <c r="E19" t="n">
         <v>74.95379715270509</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.1417422175888</v>
+        <v>121.141911302408</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20596484051966</v>
+        <v>0.2059625624549098</v>
       </c>
       <c r="D20" t="n">
-        <v>2689.823543839133</v>
+        <v>2689.834749823602</v>
       </c>
       <c r="E20" t="n">
-        <v>13.88928861781484</v>
+        <v>13.88760596752844</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.5190091384336</v>
+        <v>119.5186608937859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195666598493677</v>
+        <v>0.1956644343321643</v>
       </c>
       <c r="D21" t="n">
-        <v>501.7686775471593</v>
+        <v>501.7671985195797</v>
       </c>
       <c r="E21" t="n">
-        <v>13.88928861781484</v>
+        <v>13.88760596752844</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.4233331984505</v>
+        <v>104.4247262497465</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>437.2204961019123</v>
+        <v>437.2263288076885</v>
       </c>
       <c r="E22" t="n">
         <v>595.0087600066977</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.25263724958224</v>
+        <v>66.25270539374843</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.6416290004227</v>
+        <v>108.6431296554592</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1369579770023725</v>
+        <v>0.1369649373864069</v>
       </c>
       <c r="D25" t="n">
-        <v>2632.957341997275</v>
+        <v>2632.974616723786</v>
       </c>
       <c r="E25" t="n">
-        <v>43.65431286031304</v>
+        <v>43.65571124369593</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.0725725761263</v>
+        <v>500.0699122815104</v>
       </c>
       <c r="C26" t="n">
-        <v>7.042858534516733</v>
+        <v>7.042276119563401</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.063691844497</v>
+        <v>3411.064113483073</v>
       </c>
       <c r="E26" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F26" t="n">
-        <v>6.796863763472616</v>
+        <v>6.796900353628436</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.2665539327685</v>
+        <v>192.2672722360083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4993976124512207</v>
+        <v>0.4993659774065307</v>
       </c>
       <c r="D27" t="n">
-        <v>2839.225101099801</v>
+        <v>2839.228408820909</v>
       </c>
       <c r="E27" t="n">
-        <v>57.11043719416475</v>
+        <v>57.10568603289793</v>
       </c>
       <c r="F27" t="n">
-        <v>7.026159543217497</v>
+        <v>7.026195044832378</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.2495153053926</v>
+        <v>173.247567554737</v>
       </c>
       <c r="C28" t="n">
-        <v>0.580009086867838</v>
+        <v>0.579970631427617</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.946314432417</v>
+        <v>2791.944535528787</v>
       </c>
       <c r="E28" t="n">
-        <v>16.83018714023266</v>
+        <v>16.82947513885751</v>
       </c>
       <c r="F28" t="n">
-        <v>6.855726028479483</v>
+        <v>6.855751388808711</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.3058934120858</v>
+        <v>187.3058781996243</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4993976124512207</v>
+        <v>0.4993659774065307</v>
       </c>
       <c r="D29" t="n">
-        <v>2828.463617347965</v>
+        <v>2828.465427345965</v>
       </c>
       <c r="E29" t="n">
-        <v>73.94062433439741</v>
+        <v>73.93516117175544</v>
       </c>
       <c r="F29" t="n">
-        <v>7.002913032177522</v>
+        <v>7.002945316036322</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.1418358915998</v>
+        <v>121.1412972885074</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2059662353061618</v>
+        <v>0.2059627449860895</v>
       </c>
       <c r="D30" t="n">
-        <v>2689.823939259077</v>
+        <v>2689.83215786023</v>
       </c>
       <c r="E30" t="n">
-        <v>73.94062433439741</v>
+        <v>73.93516117175544</v>
       </c>
       <c r="F30" t="n">
-        <v>7.072054239522759</v>
+        <v>7.072082649419685</v>
       </c>
       <c r="G30" t="n">
-        <v>99.19253119726186</v>
+        <v>99.19294088384737</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.6414392503652</v>
+        <v>108.6425632500396</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1369570969185903</v>
+        <v>0.1369623102332709</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.956405838208</v>
+        <v>2632.972159903659</v>
       </c>
       <c r="E31" t="n">
-        <v>60.05133240770545</v>
+        <v>60.04760483442269</v>
       </c>
       <c r="F31" t="n">
-        <v>7.106638857594962</v>
+        <v>7.106663317539032</v>
       </c>
       <c r="G31" t="n">
-        <v>97.49094459702879</v>
+        <v>97.4915697136767</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.43990655993412</v>
+        <v>73.44701623663366</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03095677589297074</v>
+        <v>0.03094778992426853</v>
       </c>
       <c r="D32" t="n">
-        <v>2632.956405838208</v>
+        <v>2632.972159903659</v>
       </c>
       <c r="E32" t="n">
-        <v>16.39698693807451</v>
+        <v>16.39200768797856</v>
       </c>
       <c r="F32" t="n">
-        <v>7.777491919450694</v>
+        <v>7.777670461859417</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.93978766376893</v>
+        <v>23.9380855597168</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002975015282326423</v>
+        <v>0.002974710969829089</v>
       </c>
       <c r="D33" t="n">
-        <v>2480.963882735142</v>
+        <v>2481.03727972153</v>
       </c>
       <c r="E33" t="n">
-        <v>16.39698693807451</v>
+        <v>16.39200768797856</v>
       </c>
       <c r="F33" t="n">
-        <v>8.365287662055282</v>
+        <v>8.36558062635542</v>
       </c>
       <c r="G33" t="n">
-        <v>97.39707451098205</v>
+        <v>97.40020795077471</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.93978766376893</v>
+        <v>23.9380855597168</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002975015282326423</v>
+        <v>0.002974710969829089</v>
       </c>
       <c r="D34" t="n">
-        <v>100.3954145157467</v>
+        <v>100.3882959165766</v>
       </c>
       <c r="E34" t="n">
-        <v>16.39698693807451</v>
+        <v>16.39200768797856</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.96199220665432</v>
+        <v>25.96028892315326</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>109.4916048475561</v>
+        <v>109.4844864105116</v>
       </c>
       <c r="E35" t="n">
-        <v>16.39698693807451</v>
+        <v>16.39200768797856</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.827211602513</v>
+        <v>498.8283167676749</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3465.653939444367</v>
+        <v>3465.656377241221</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16419089288922</v>
+        <v>10.16418887948097</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.827211602513</v>
+        <v>513.8283167676749</v>
       </c>
       <c r="C42" t="n">
-        <v>6.290887860935342</v>
+        <v>6.290649373355402</v>
       </c>
       <c r="D42" t="n">
-        <v>3452.721565529634</v>
+        <v>3452.726528360327</v>
       </c>
       <c r="E42" t="n">
-        <v>11.79780446024108</v>
+        <v>11.79771769812031</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-20, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-20, Volume=10x15x8.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8185883005455497</v>
+        <v>0.9160608043316192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8700012565396609</v>
+        <v>0.9546950663174909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.940904733633833</v>
+        <v>0.9595323539956122</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6104543885103481</v>
+        <v>0.5783629704587666</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.80976774823346</v>
+        <v>54.97230611282576</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.65507021283846</v>
+        <v>35.3339694033635</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493165918135559</v>
+        <v>0.8493803367859302</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.2498731231952</v>
+        <v>11.34487002470491</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8356762268902248</v>
+        <v>0.8339673897115025</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.414306688182234</v>
+        <v>4.090293414294292</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8115594567459971</v>
+        <v>0.8140597216754656</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.490517724017565</v>
+        <v>4.203173270463063</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4652074335222948</v>
+        <v>0.5805952005046747</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1491048245079007</v>
+        <v>0.1904274734344277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1659301571632426</v>
+        <v>0.2112338391330146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8985999112940688</v>
+        <v>0.9015007927518416</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40396.0254472106</v>
+        <v>40223.77553562239</v>
       </c>
       <c r="C2" t="n">
-        <v>40804.06610829353</v>
+        <v>40630.07629860847</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89493.94665698364</v>
+        <v>87491.31463455588</v>
       </c>
       <c r="C3" t="n">
-        <v>90397.92591614509</v>
+        <v>88375.06528743017</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37637.679471875</v>
+        <v>38240.98387619647</v>
       </c>
       <c r="C4" t="n">
-        <v>38017.85805239899</v>
+        <v>38627.2564406025</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507.6608597294598</v>
+        <v>508.9981452788389</v>
       </c>
       <c r="C5" t="n">
-        <v>512.7887472014746</v>
+        <v>514.1395406856959</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32271.43759160782</v>
+        <v>32852.27568692444</v>
       </c>
       <c r="C6" t="n">
-        <v>32597.41170869477</v>
+        <v>33184.11685547923</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36663.16059660226</v>
+        <v>37719.64247477704</v>
       </c>
       <c r="C7" t="n">
-        <v>37033.4955521235</v>
+        <v>38100.64896442125</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.08314978301664</v>
+        <v>33.3033469366023</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.09801961685002</v>
+        <v>92.105843728354</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.352600573781453</v>
+        <v>8.124579308691855</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.2372184005262</v>
+        <v>460.5342576614574</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>865.1893632150695</v>
+        <v>865.5252549908552</v>
       </c>
       <c r="E6" t="n">
         <v>517.99365816</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.0158527812797</v>
+        <v>306.9061797448575</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>690.6738561386825</v>
+        <v>694.914932074252</v>
       </c>
       <c r="E7" t="n">
         <v>517.99365816</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1555595953504</v>
+        <v>238.0088531827124</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.2794092115815</v>
+        <v>620.344025978967</v>
       </c>
       <c r="E8" t="n">
         <v>517.99365816</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.2335148091649</v>
+        <v>237.084919101415</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2894574252547</v>
+        <v>619.3514664512848</v>
       </c>
       <c r="E9" t="n">
         <v>517.99365816</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.2784310449253</v>
+        <v>177.0954599799871</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.3593207427203</v>
+        <v>555.2886804832967</v>
       </c>
       <c r="E10" t="n">
         <v>517.99365816</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.575452344731</v>
+        <v>107.4509794129827</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.8652107884158</v>
+        <v>481.7344035839209</v>
       </c>
       <c r="E11" t="n">
         <v>517.99365816</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.905105380045</v>
+        <v>502.0917369367536</v>
       </c>
       <c r="C3" t="n">
-        <v>7.628841646411599</v>
+        <v>8.134184154908205</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.064113483073</v>
+        <v>3403.073057663641</v>
       </c>
       <c r="E3" t="n">
-        <v>61.93020771981365</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.9071090914509</v>
+        <v>299.0029653535121</v>
       </c>
       <c r="C4" t="n">
-        <v>7.988477533311912</v>
+        <v>8.467924590009705</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.854369067576</v>
+        <v>2751.533617387639</v>
       </c>
       <c r="E4" t="n">
-        <v>61.93020771981365</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.3993077156658</v>
+        <v>298.1220119254402</v>
       </c>
       <c r="C5" t="n">
-        <v>7.988477533311912</v>
+        <v>8.467924590009705</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.912518214841</v>
+        <v>1334.406548905123</v>
       </c>
       <c r="E5" t="n">
-        <v>61.93020771981365</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.1121097542668</v>
+        <v>168.082083020743</v>
       </c>
       <c r="C6" t="n">
-        <v>7.988477533311912</v>
+        <v>8.467924590009705</v>
       </c>
       <c r="D6" t="n">
-        <v>706.2074135470148</v>
+        <v>715.0105624445089</v>
       </c>
       <c r="E6" t="n">
-        <v>61.93020771981365</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.0257584150146</v>
+        <v>165.673210762783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6841682179224202</v>
+        <v>0.7127093299081827</v>
       </c>
       <c r="D7" t="n">
-        <v>692.9894972718259</v>
+        <v>700.1729472645035</v>
       </c>
       <c r="E7" t="n">
-        <v>61.93020771981365</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.1777557805037</v>
+        <v>177.5914712518119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6770247361914722</v>
+        <v>0.7056557325477917</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.944535528787</v>
+        <v>2793.285220470693</v>
       </c>
       <c r="E8" t="n">
-        <v>16.82947513885751</v>
+        <v>17.0934955494405</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.0257582802157</v>
+        <v>165.6732106244899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6841682179224202</v>
+        <v>0.7127093299081827</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.784463666042</v>
+        <v>2763.511105837388</v>
       </c>
       <c r="E9" t="n">
-        <v>16.82947513885751</v>
+        <v>17.0934955494405</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.0257584150146</v>
+        <v>165.673210762783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6841682179224202</v>
+        <v>0.7127093299081827</v>
       </c>
       <c r="D10" t="n">
-        <v>725.301651220381</v>
+        <v>730.8219733936867</v>
       </c>
       <c r="E10" t="n">
-        <v>78.75968285867116</v>
+        <v>78.83258186609248</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.0257584150146</v>
+        <v>165.673210762783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6841682179224202</v>
+        <v>0.7127093299081827</v>
       </c>
       <c r="D11" t="n">
-        <v>725.301651220381</v>
+        <v>730.8219733936867</v>
       </c>
       <c r="E11" t="n">
-        <v>78.76842879323912</v>
+        <v>78.8297881528626</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.93471866899944</v>
+        <v>60.13942946194425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6841682179224202</v>
+        <v>0.7127093299081827</v>
       </c>
       <c r="D12" t="n">
-        <v>259.8433917384927</v>
+        <v>252.331721877677</v>
       </c>
       <c r="E12" t="n">
-        <v>78.75968285867116</v>
+        <v>78.83258186609248</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.93545426651349</v>
+        <v>60.13778891326751</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>259.8464698558217</v>
+        <v>252.3248583222753</v>
       </c>
       <c r="E13" t="n">
-        <v>73.93540586191533</v>
+        <v>78.8306705750116</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.93545426651349</v>
+        <v>60.13778891326751</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>259.8464698558217</v>
+        <v>252.3248583222753</v>
       </c>
       <c r="E14" t="n">
-        <v>73.93540586191533</v>
+        <v>78.8306705750116</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.1353321983938</v>
+        <v>105.7574691976943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1301166905170866</v>
+        <v>0.1241077358852</v>
       </c>
       <c r="D15" t="n">
-        <v>449.2983313240208</v>
+        <v>443.4744233227227</v>
       </c>
       <c r="E15" t="n">
-        <v>57.54326758102867</v>
+        <v>57.89749951068805</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.27480857097873</v>
+        <v>72.04823874175804</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1301167118267422</v>
+        <v>0.1241074543008556</v>
       </c>
       <c r="D16" t="n">
-        <v>302.679094741218</v>
+        <v>301.7245826488867</v>
       </c>
       <c r="E16" t="n">
-        <v>57.54339817393677</v>
+        <v>57.89538694782851</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.51491685254831</v>
+        <v>88.78834469608459</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>374.7989568616198</v>
+        <v>371.7567992425062</v>
       </c>
       <c r="E19" t="n">
         <v>74.95379715270509</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.141911302408</v>
+        <v>121.4662289994899</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2059625624549098</v>
+        <v>0.2080851795262899</v>
       </c>
       <c r="D20" t="n">
-        <v>2689.834749823602</v>
+        <v>2678.721263505809</v>
       </c>
       <c r="E20" t="n">
-        <v>13.88760596752844</v>
+        <v>15.46241429267827</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.5186608937859</v>
+        <v>119.8417880681583</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1956644343321643</v>
+        <v>0.1976809205499754</v>
       </c>
       <c r="D21" t="n">
-        <v>501.7671985195797</v>
+        <v>503.1396406323751</v>
       </c>
       <c r="E21" t="n">
-        <v>13.88760596752844</v>
+        <v>15.46241429267827</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.4247262497465</v>
+        <v>103.1321500909332</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>437.2263288076885</v>
+        <v>431.8143124307373</v>
       </c>
       <c r="E22" t="n">
         <v>595.0087600066977</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.25270539374843</v>
+        <v>66.16117843533561</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.6431296554592</v>
+        <v>107.2527661824611</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1369649373864069</v>
+        <v>0.1306397219844211</v>
       </c>
       <c r="D25" t="n">
-        <v>2632.974616723786</v>
+        <v>2614.172915319883</v>
       </c>
       <c r="E25" t="n">
-        <v>43.65571124369593</v>
+        <v>42.43501946483377</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.0699122815104</v>
+        <v>499.4657580424357</v>
       </c>
       <c r="C26" t="n">
-        <v>7.042276119563401</v>
+        <v>7.590733801080519</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.064113483073</v>
+        <v>3403.073057663641</v>
       </c>
       <c r="E26" t="n">
-        <v>57.10568603289793</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F26" t="n">
-        <v>6.796900353628436</v>
+        <v>6.753954531179183</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.2672722360083</v>
+        <v>189.0745506925839</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4993659774065307</v>
+        <v>0.5263165389481222</v>
       </c>
       <c r="D27" t="n">
-        <v>2839.228408820909</v>
+        <v>2830.761876669804</v>
       </c>
       <c r="E27" t="n">
-        <v>57.10568603289793</v>
+        <v>61.73908631665198</v>
       </c>
       <c r="F27" t="n">
-        <v>7.026195044832378</v>
+        <v>6.984411404369014</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.247567554737</v>
+        <v>174.7237099536365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.579970631427617</v>
+        <v>0.6094700786278121</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.944535528787</v>
+        <v>2793.285220470693</v>
       </c>
       <c r="E28" t="n">
-        <v>16.82947513885751</v>
+        <v>17.0934955494405</v>
       </c>
       <c r="F28" t="n">
-        <v>6.855751388808711</v>
+        <v>6.836810066157164</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.3058781996243</v>
+        <v>185.3695091577904</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4993659774065307</v>
+        <v>0.5263165389481222</v>
       </c>
       <c r="D29" t="n">
-        <v>2828.465427345965</v>
+        <v>2822.635705475316</v>
       </c>
       <c r="E29" t="n">
-        <v>73.93516117175544</v>
+        <v>78.83258186609248</v>
       </c>
       <c r="F29" t="n">
-        <v>7.002945316036322</v>
+        <v>6.966759925698372</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.1412972885074</v>
+        <v>121.4670812328632</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2059627449860895</v>
+        <v>0.2080827643704853</v>
       </c>
       <c r="D30" t="n">
-        <v>2689.83215786023</v>
+        <v>2678.724777326652</v>
       </c>
       <c r="E30" t="n">
-        <v>73.93516117175544</v>
+        <v>78.83258186609248</v>
       </c>
       <c r="F30" t="n">
-        <v>7.072082649419685</v>
+        <v>7.039364205359358</v>
       </c>
       <c r="G30" t="n">
-        <v>99.19294088384737</v>
+        <v>98.66587669460436</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.6425632500396</v>
+        <v>107.25406595047</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1369623102332709</v>
+        <v>0.1306455206125025</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.972159903659</v>
+        <v>2614.178669670123</v>
       </c>
       <c r="E31" t="n">
-        <v>60.04760483442269</v>
+        <v>63.3701018202382</v>
       </c>
       <c r="F31" t="n">
-        <v>7.106663317539032</v>
+        <v>7.078120488257865</v>
       </c>
       <c r="G31" t="n">
-        <v>97.4915697136767</v>
+        <v>96.75075010372784</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.44701623663366</v>
+        <v>75.48126631061058</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03094778992426853</v>
+        <v>0.03937912837828883</v>
       </c>
       <c r="D32" t="n">
-        <v>2632.972159903659</v>
+        <v>2614.178669670123</v>
       </c>
       <c r="E32" t="n">
-        <v>16.39200768797856</v>
+        <v>20.93528362718308</v>
       </c>
       <c r="F32" t="n">
-        <v>7.777670461859417</v>
+        <v>7.61342113851669</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>99.08431854891845</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.9380855597168</v>
+        <v>25.4274305856938</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002974710969829089</v>
+        <v>0.003251605714496925</v>
       </c>
       <c r="D33" t="n">
-        <v>2481.03727972153</v>
+        <v>2413.408842744754</v>
       </c>
       <c r="E33" t="n">
-        <v>16.39200768797856</v>
+        <v>20.93528362718308</v>
       </c>
       <c r="F33" t="n">
-        <v>8.36558062635542</v>
+        <v>8.099158403192167</v>
       </c>
       <c r="G33" t="n">
-        <v>97.40020795077471</v>
+        <v>94.51498810571793</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.9380855597168</v>
+        <v>25.4274305856938</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002974710969829089</v>
+        <v>0.003251605714496925</v>
       </c>
       <c r="D34" t="n">
-        <v>100.3882959165766</v>
+        <v>106.6166041250954</v>
       </c>
       <c r="E34" t="n">
-        <v>16.39200768797856</v>
+        <v>20.93528362718308</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.96028892315326</v>
+        <v>27.45062534908595</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>109.4844864105116</v>
+        <v>115.7126105048309</v>
       </c>
       <c r="E35" t="n">
-        <v>16.39200768797856</v>
+        <v>20.93528362718308</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
